--- a/results/binary/1479/automl.xlsx
+++ b/results/binary/1479/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>00:00:14</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>00:00:16</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -590,7 +620,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -605,7 +635,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>0.659</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -615,22 +645,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>0.652</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.463</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.950</t>
+          <t>0.966</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.429</t>
+          <t>0.421</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -640,10 +670,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:55</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:52</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:17:57</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:03:10</t>
         </is>
       </c>
     </row>
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:47:52</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:12:05</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:02</t>
         </is>
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:03</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>00:08:59</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,65 +1137,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.494</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.563</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.527</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.540</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.484</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.034</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.374</t>
+          <t>0.445</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>0.494</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.430</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.632</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.180</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>0.527</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.403</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-0.069</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.539</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.932</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.484</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>00:09:54</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:01:01</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:11:26</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:11:29</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/binary/1479/automl.xlsx
+++ b/results/binary/1479/automl.xlsx
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.971 (0.960 Â± 0.010)</t>
+          <t>0.979 (0.959 Â± 0.013)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:05:24 (00:11:41 Â± 00:06:14)</t>
+          <t>00:01:08 (00:01:10 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>61</t>
         </is>
       </c>
     </row>

--- a/results/binary/1479/automl.xlsx
+++ b/results/binary/1479/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.670 (0.616 Â± 0.039)</t>
+          <t>0.670 (0.616 ± 0.039)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:31 (00:04:59 Â± 00:00:23)</t>
+          <t>00:04:31 (00:04:59 ± 00:00:23)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:05 (00:00:13 Â± 00:00:05)</t>
+          <t>00:00:05 (00:00:13 ± 00:00:05)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.926 (0.685 Â± 0.162)</t>
+          <t>0.926 (0.685 ± 0.162)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:17 Â± 00:00:04)</t>
+          <t>00:00:11 (00:00:17 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.719 (0.571 Â± 0.116)</t>
+          <t>0.719 (0.571 ± 0.116)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:43 Â± 00:00:08)</t>
+          <t>00:00:27 (00:00:43 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.597 (0.519 Â± 0.056)</t>
+          <t>0.597 (0.519 ± 0.056)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.000 (1.000 Â± 0.000)</t>
+          <t>1.000 (1.000 ± 0.000)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:57 (00:04:59 Â± 00:00:01)</t>
+          <t>00:04:57 (00:04:59 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.946 (0.918 Â± 0.015)</t>
+          <t>0.946 (0.918 ± 0.015)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.979 (0.877 Â± 0.113)</t>
+          <t>0.979 (0.877 ± 0.113)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:53 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:53 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.880 (0.834 Â± 0.037)</t>
+          <t>0.880 (0.834 ± 0.037)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.000 (0.988 Â± 0.012)</t>
+          <t>1.000 (0.988 ± 0.012)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:33 Â± 00:00:05)</t>
+          <t>00:04:29 (00:04:33 ± 00:00:05)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.380 (0.347 Â± 0.022)</t>
+          <t>0.380 (0.347 ± 0.022)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:02 (00:05:03 Â± 00:00:00)</t>
+          <t>00:05:02 (00:05:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.368 (0.334 Â± 0.023)</t>
+          <t>0.368 (0.334 ± 0.023)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:29 (00:03:09 Â± 00:00:18)</t>
+          <t>00:02:29 (00:03:09 ± 00:00:18)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.563 (0.514 Â± 0.032)</t>
+          <t>0.563 (0.514 ± 0.032)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:04 (00:00:05 Â± 00:00:00)</t>
+          <t>00:00:04 (00:00:05 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.947 (0.923 Â± 0.020)</t>
+          <t>0.947 (0.923 ± 0.020)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:29 Â± 00:00:01)</t>
+          <t>00:00:27 (00:00:29 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.975 (0.955 Â± 0.014)</t>
+          <t>0.975 (0.955 ± 0.014)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:32 (00:04:43 Â± 00:01:04)</t>
+          <t>00:00:32 (00:04:43 ± 00:01:04)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.979 (0.959 Â± 0.013)</t>
+          <t>0.979 (0.959 ± 0.013)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:01:08 (00:01:10 Â± 00:00:00)</t>
+          <t>00:01:08 (00:01:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.992 (0.973 Â± 0.015)</t>
+          <t>0.992 (0.973 ± 0.015)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:28 Â± 00:00:13)</t>
+          <t>00:05:06 (00:05:28 ± 00:00:13)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
